--- a/src/main/resources/AddUser.xlsx
+++ b/src/main/resources/AddUser.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Firstname</t>
   </si>
@@ -81,13 +81,64 @@
     <t>User Code - DB1305</t>
   </si>
   <si>
-    <t>Bismillah</t>
+    <t>Aamir</t>
   </si>
   <si>
     <t>Khan</t>
   </si>
   <si>
-    <t>User Code - BK02</t>
+    <t>User Code - Ak82</t>
+  </si>
+  <si>
+    <t>Muhammad Aamir</t>
+  </si>
+  <si>
+    <t>User Code - MA83</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>9764678907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
   </si>
 </sst>
 </file>
@@ -429,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" style="1" customWidth="1"/>
@@ -484,51 +535,51 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -543,11 +594,108 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/AddUser.xlsx
+++ b/src/main/resources/AddUser.xlsx
@@ -81,21 +81,6 @@
     <t>User Code - DB1305</t>
   </si>
   <si>
-    <t>Aamir</t>
-  </si>
-  <si>
-    <t>Khan</t>
-  </si>
-  <si>
-    <t>User Code - Ak82</t>
-  </si>
-  <si>
-    <t>Muhammad Aamir</t>
-  </si>
-  <si>
-    <t>User Code - MA83</t>
-  </si>
-  <si>
     <t>Amir</t>
   </si>
   <si>
@@ -139,6 +124,21 @@
   </si>
   <si>
     <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t>User Code - MA85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajmeer </t>
+  </si>
+  <si>
+    <t>Khaja</t>
+  </si>
+  <si>
+    <t>User Code - AK86</t>
+  </si>
+  <si>
+    <t>Mohammad Aamir</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,51 +535,51 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -599,45 +599,45 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -678,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>

--- a/src/main/resources/AddUser.xlsx
+++ b/src/main/resources/AddUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="13810" windowHeight="3610"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="13810" windowHeight="3610" tabRatio="206"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Firstname</t>
   </si>
@@ -69,21 +69,6 @@
     <t>7502065365</t>
   </si>
   <si>
-    <t>1234567896</t>
-  </si>
-  <si>
-    <t>Varma</t>
-  </si>
-  <si>
-    <t>DBA</t>
-  </si>
-  <si>
-    <t>User Code - DB1305</t>
-  </si>
-  <si>
-    <t>Amir</t>
-  </si>
-  <si>
     <t>9764678907</t>
   </si>
   <si>
@@ -99,18 +84,9 @@
     <t xml:space="preserve">            </t>
   </si>
   <si>
-    <t xml:space="preserve">                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          </t>
-  </si>
-  <si>
     <t xml:space="preserve">                 </t>
   </si>
   <si>
-    <t xml:space="preserve">             </t>
-  </si>
-  <si>
     <t xml:space="preserve">           </t>
   </si>
   <si>
@@ -123,22 +99,55 @@
     <t xml:space="preserve">                         </t>
   </si>
   <si>
-    <t xml:space="preserve">                </t>
-  </si>
-  <si>
-    <t>User Code - MA85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajmeer </t>
-  </si>
-  <si>
-    <t>Khaja</t>
-  </si>
-  <si>
-    <t>User Code - AK86</t>
-  </si>
-  <si>
-    <t>Mohammad Aamir</t>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Saravana Velu</t>
+  </si>
+  <si>
+    <t>Rayappan</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Tendulkar</t>
+  </si>
+  <si>
+    <t>User Code - SV92</t>
+  </si>
+  <si>
+    <t>User Code - SR93</t>
   </si>
 </sst>
 </file>
@@ -177,7 +186,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +492,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,51 +544,51 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -599,45 +608,45 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -663,34 +672,34 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/AddUser.xlsx
+++ b/src/main/resources/AddUser.xlsx
@@ -132,22 +132,22 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Saravana Velu</t>
-  </si>
-  <si>
     <t>Rayappan</t>
   </si>
   <si>
-    <t>Sachin</t>
-  </si>
-  <si>
-    <t>Tendulkar</t>
-  </si>
-  <si>
-    <t>User Code - SV92</t>
-  </si>
-  <si>
-    <t>User Code - SR93</t>
+    <t xml:space="preserve">Michael </t>
+  </si>
+  <si>
+    <t>Raayappan</t>
+  </si>
+  <si>
+    <t>User Code - MR94</t>
+  </si>
+  <si>
+    <t>Bigil</t>
+  </si>
+  <si>
+    <t>User Code - B93</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +492,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,13 +576,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -611,7 +611,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -640,13 +640,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>

--- a/src/main/resources/AddUser.xlsx
+++ b/src/main/resources/AddUser.xlsx
@@ -129,25 +129,25 @@
     <t xml:space="preserve">                                                             </t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Rayappan</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael </t>
-  </si>
-  <si>
-    <t>Raayappan</t>
-  </si>
-  <si>
-    <t>User Code - MR94</t>
-  </si>
-  <si>
-    <t>Bigil</t>
-  </si>
-  <si>
-    <t>User Code - B93</t>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Arockiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jebaraj</t>
+  </si>
+  <si>
+    <t>User Code - AJ95</t>
+  </si>
+  <si>
+    <t>Rolex</t>
+  </si>
+  <si>
+    <t>User Code - LCU96</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,13 +576,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -611,7 +611,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -640,13 +640,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
